--- a/backend/auxiliar/LIGHT_2025-02-26_20-13-31_L_1x1_-10.00_3.00s_0000.plate-coefs.xlsx
+++ b/backend/auxiliar/LIGHT_2025-02-26_20-13-31_L_1x1_-10.00_3.00s_0000.plate-coefs.xlsx
@@ -490,28 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-7.409452798233217e-15</v>
+        <v>-7.409452811607048e-15</v>
       </c>
       <c r="D2" t="n">
-        <v>5.179118952170495e-14</v>
+        <v>5.179118952131721e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.293193471002767e-16</v>
+        <v>-1.293193473336941e-16</v>
       </c>
       <c r="F2" t="n">
-        <v>9.039267806781384e-16</v>
+        <v>9.039267806713712e-16</v>
       </c>
       <c r="G2" t="n">
-        <v>7.559754749221483e-20</v>
+        <v>1.17828454229957e-28</v>
       </c>
       <c r="H2" t="n">
-        <v>2.302832985928164e-23</v>
+        <v>3.589259970498579e-32</v>
       </c>
       <c r="I2" t="n">
-        <v>6.172956638368786e-20</v>
+        <v>2.88157300524464e-28</v>
       </c>
       <c r="J2" t="n">
-        <v>1.880390123635134e-23</v>
+        <v>8.777773337846538e-32</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-4.861914987905246e-14</v>
+        <v>-4.861914998617235e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.881752792693091e-15</v>
+        <v>-4.881752797759572e-15</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.485642449100683e-16</v>
+        <v>-8.485642467796631e-16</v>
       </c>
       <c r="F3" t="n">
-        <v>-8.520265950092261e-17</v>
+        <v>-8.520265958934939e-17</v>
       </c>
       <c r="G3" t="n">
-        <v>6.671230875528963e-20</v>
+        <v>1.039796723505734e-28</v>
       </c>
       <c r="H3" t="n">
-        <v>2.032173136105058e-23</v>
+        <v>3.167401950169903e-32</v>
       </c>
       <c r="I3" t="n">
-        <v>5.447427897502658e-20</v>
+        <v>2.542891858318357e-28</v>
       </c>
       <c r="J3" t="n">
-        <v>1.659381430611394e-23</v>
+        <v>7.746091566775665e-32</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.243882273822828e-14</v>
+        <v>2.243882269273335e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>8.207440764154295e-14</v>
+        <v>8.207440763935868e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>3.916313370534531e-16</v>
+        <v>3.916313362594168e-16</v>
       </c>
       <c r="F4" t="n">
-        <v>1.432468644968918e-15</v>
+        <v>1.432468644930796e-15</v>
       </c>
       <c r="G4" t="n">
-        <v>1.202108404004472e-19</v>
+        <v>1.873639817155104e-28</v>
       </c>
       <c r="H4" t="n">
-        <v>3.661831603317605e-23</v>
+        <v>5.707433267114283e-32</v>
       </c>
       <c r="I4" t="n">
-        <v>9.815878026072862e-20</v>
+        <v>4.582110453667471e-28</v>
       </c>
       <c r="J4" t="n">
-        <v>2.990087437243365e-23</v>
+        <v>1.39579066357389e-31</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-4.755730560401729e-14</v>
+        <v>-4.755730566440148e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.604483617852635e-14</v>
+        <v>-3.604483617815153e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>-8.300315661672524e-16</v>
+        <v>-8.300315672211551e-16</v>
       </c>
       <c r="F5" t="n">
-        <v>-6.291010696572553e-16</v>
+        <v>-6.291010696507135e-16</v>
       </c>
       <c r="G5" t="n">
-        <v>7.021306391581797e-19</v>
+        <v>1.094360473638643e-27</v>
       </c>
       <c r="H5" t="n">
-        <v>2.138812236535572e-22</v>
+        <v>3.333612637963637e-31</v>
       </c>
       <c r="I5" t="n">
-        <v>5.733283861410913e-19</v>
+        <v>2.676331128548492e-27</v>
       </c>
       <c r="J5" t="n">
-        <v>1.74645813676777e-22</v>
+        <v>8.152570828732916e-31</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.046466710575525e-11</v>
+        <v>3.046466708966163e-11</v>
       </c>
       <c r="D6" t="n">
-        <v>4.759676939906074e-11</v>
+        <v>4.759676939831958e-11</v>
       </c>
       <c r="E6" t="n">
-        <v>5.317087465194407e-13</v>
+        <v>5.317087462385539e-13</v>
       </c>
       <c r="F6" t="n">
-        <v>8.307203393260926e-13</v>
+        <v>8.30720339313157e-13</v>
       </c>
       <c r="G6" t="n">
-        <v>9.227480001052777e-14</v>
+        <v>1.438220869630538e-22</v>
       </c>
       <c r="H6" t="n">
-        <v>2.810851149054152e-17</v>
+        <v>4.381071303902507e-26</v>
       </c>
       <c r="I6" t="n">
-        <v>7.534746273849674e-14</v>
+        <v>3.517264535626203e-22</v>
       </c>
       <c r="J6" t="n">
-        <v>2.295214968687604e-17</v>
+        <v>1.07142004754975e-25</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-3.947235355006339e-10</v>
+        <v>-3.94723535516304e-10</v>
       </c>
       <c r="D7" t="n">
-        <v>-6.836102541586906e-11</v>
+        <v>-6.836102541605435e-11</v>
       </c>
       <c r="E7" t="n">
-        <v>-6.889225329598785e-12</v>
+        <v>-6.88922532987228e-12</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.193124973546441e-12</v>
+        <v>-1.193124973549675e-12</v>
       </c>
       <c r="G7" t="n">
-        <v>1.638269131242516e-13</v>
+        <v>2.55345213899749e-22</v>
       </c>
       <c r="H7" t="n">
-        <v>4.99045315675308e-17</v>
+        <v>7.778260021302673e-26</v>
       </c>
       <c r="I7" t="n">
-        <v>1.337737088650873e-13</v>
+        <v>6.244636579513614e-22</v>
       </c>
       <c r="J7" t="n">
-        <v>4.074980202978123e-17</v>
+        <v>1.902225082357134e-25</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.583654370224878e-11</v>
+        <v>1.58365436615912e-11</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.078024447496249e-10</v>
+        <v>-2.078024447514249e-10</v>
       </c>
       <c r="E8" t="n">
-        <v>2.763998297402137e-13</v>
+        <v>2.763998290306051e-13</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.626836854574559e-12</v>
+        <v>-3.626836854605974e-12</v>
       </c>
       <c r="G8" t="n">
-        <v>2.974652932140281e-13</v>
+        <v>4.636377349421205e-22</v>
       </c>
       <c r="H8" t="n">
-        <v>9.061311009495396e-17</v>
+        <v>1.412321305338226e-25</v>
       </c>
       <c r="I8" t="n">
-        <v>2.428968157490759e-13</v>
+        <v>1.133856834457491e-21</v>
       </c>
       <c r="J8" t="n">
-        <v>7.399060128789106e-17</v>
+        <v>3.45392543319966e-25</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.090878687657823e-05</v>
+        <v>1.090878687667711e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0005432880894939711</v>
+        <v>-0.0005432880894939687</v>
       </c>
       <c r="E9" t="n">
-        <v>1.903942483946384e-07</v>
+        <v>1.903942483963642e-07</v>
       </c>
       <c r="F9" t="n">
-        <v>-9.48216594853941e-06</v>
+        <v>-9.482165948539368e-06</v>
       </c>
       <c r="G9" t="n">
-        <v>1.235933268247483e-06</v>
+        <v>1.926360197650284e-15</v>
       </c>
       <c r="H9" t="n">
-        <v>3.764868032021023e-10</v>
+        <v>5.868028729880435e-19</v>
       </c>
       <c r="I9" t="n">
-        <v>1.00920766954706e-06</v>
+        <v>4.711041641175583e-15</v>
       </c>
       <c r="J9" t="n">
-        <v>3.074222363263826e-10</v>
+        <v>1.435065349242647e-18</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0005447916065334374</v>
+        <v>0.0005447916065334166</v>
       </c>
       <c r="D10" t="n">
-        <v>1.097882907238282e-05</v>
+        <v>1.09788290723787e-05</v>
       </c>
       <c r="E10" t="n">
-        <v>9.508407271237933e-06</v>
+        <v>9.508407271237571e-06</v>
       </c>
       <c r="F10" t="n">
-        <v>1.916167153267551e-07</v>
+        <v>1.916167153266832e-07</v>
       </c>
       <c r="G10" t="n">
-        <v>3.732425879680181e-06</v>
+        <v>5.817463482871495e-15</v>
       </c>
       <c r="H10" t="n">
-        <v>1.136961941013313e-09</v>
+        <v>1.772100715855714e-18</v>
       </c>
       <c r="I10" t="n">
-        <v>3.047731556842361e-06</v>
+        <v>1.422699282681159e-14</v>
       </c>
       <c r="J10" t="n">
-        <v>9.283921230478485e-10</v>
+        <v>4.333789846227358e-18</v>
       </c>
     </row>
     <row r="11">
@@ -799,7 +799,7 @@
         <v>112.7911802138023</v>
       </c>
       <c r="D11" t="n">
-        <v>4.392311385722873</v>
+        <v>4.392311385722874</v>
       </c>
       <c r="E11" t="n">
         <v>1.968577461941132</v>
@@ -808,16 +808,16 @@
         <v>0.0766602954536988</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9845377171605632</v>
+        <v>1.534528052726398e-09</v>
       </c>
       <c r="H11" t="n">
-        <v>0.000299907339084147</v>
+        <v>4.674439760118376e-13</v>
       </c>
       <c r="I11" t="n">
-        <v>0.803929338778698</v>
+        <v>3.752790140060064e-09</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0002448908808696017</v>
+        <v>1.143165249466097e-12</v>
       </c>
     </row>
   </sheetData>
